--- a/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCDE79D9-C4CF-40A2-8DC9-D5B7148C321D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE53E3E4-61A3-4DC0-8C15-C5AA925431BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51DF8E99-1E18-42EE-A376-2CB3D8032038}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF7D8C56-A85F-4F99-A891-D80314992819}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>51,89%</t>
   </si>
   <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>48,11%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>50,99%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>48,51%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
   <si>
     <t>57,78%</t>
   </si>
   <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>53,66%</t>
   </si>
   <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>46,34%</t>
   </si>
   <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
   </si>
   <si>
     <t>51,22%</t>
   </si>
   <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>54,97%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>49,32%</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
   </si>
   <si>
     <t>45,03%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>50,68%</t>
   </si>
   <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,49 +308,55 @@
     <t>53,13%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>42,37%</t>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
   </si>
   <si>
     <t>57,94%</t>
   </si>
   <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>57,63%</t>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,7 +368,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>71,89%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -374,13 +380,13 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>70,0%</t>
+    <t>69,98%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>32,65%</t>
+    <t>28,11%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -389,55 +395,55 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>30,0%</t>
+    <t>30,02%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD2754F-98EB-44CF-BA61-D201FD1176DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A260A-2AF3-42AC-88C9-450CDAFE8F8E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1638,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1653,13 @@
         <v>57664</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1662,13 +1668,13 @@
         <v>26690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -1677,13 +1683,13 @@
         <v>84354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,7 +1745,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1751,13 +1757,13 @@
         <v>821</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1766,13 +1772,13 @@
         <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1781,13 +1787,13 @@
         <v>1718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1802,13 +1808,13 @@
         <v>4217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1817,13 +1823,13 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1832,13 +1838,13 @@
         <v>5164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1912,13 @@
         <v>781950</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -1924,10 +1930,10 @@
         <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>1030</v>
@@ -1936,13 +1942,13 @@
         <v>1075030</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1963,13 @@
         <v>697985</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -1975,10 +1981,10 @@
         <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>1104</v>
@@ -1987,13 +1993,13 @@
         <v>1155758</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2055,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE53E3E4-61A3-4DC0-8C15-C5AA925431BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C62695-C2BB-43C3-A32D-41FC7472E5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF7D8C56-A85F-4F99-A891-D80314992819}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{857FF723-5F7C-4D87-A334-D2526A7CCF38}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>51,89%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>48,11%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>64,66%</t>
   </si>
   <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>50,99%</t>
   </si>
   <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>42,22%</t>
   </si>
   <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
   </si>
   <si>
     <t>57,78%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>52,17%</t>
   </si>
   <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>53,66%</t>
   </si>
   <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
   </si>
   <si>
     <t>48,78%</t>
   </si>
   <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>46,34%</t>
   </si>
   <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>51,22%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>54,97%</t>
   </si>
   <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
   </si>
   <si>
     <t>49,32%</t>
   </si>
   <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
   </si>
   <si>
     <t>45,03%</t>
   </si>
   <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
   </si>
   <si>
     <t>50,68%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,49 @@
     <t>53,13%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>42,06%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
   </si>
   <si>
     <t>50,12%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
   </si>
   <si>
     <t>46,87%</t>
   </si>
   <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>49,88%</t>
   </si>
   <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>57,29%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,7 +362,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>71,89%</t>
+    <t>67,35%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -380,13 +374,13 @@
     <t>24,96%</t>
   </si>
   <si>
-    <t>69,98%</t>
+    <t>71,14%</t>
   </si>
   <si>
     <t>83,7%</t>
   </si>
   <si>
-    <t>28,11%</t>
+    <t>32,65%</t>
   </si>
   <si>
     <t>51,37%</t>
@@ -395,55 +389,55 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>30,02%</t>
+    <t>28,86%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>55,42%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8A260A-2AF3-42AC-88C9-450CDAFE8F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9967C26-5BE9-4657-A7D8-669A7422E702}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1668,13 +1662,13 @@
         <v>26690</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -1683,13 +1677,13 @@
         <v>84354</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1745,7 +1739,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1757,13 +1751,13 @@
         <v>821</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -1772,13 +1766,13 @@
         <v>896</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1787,13 +1781,13 @@
         <v>1718</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,13 +1802,13 @@
         <v>4217</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1823,13 +1817,13 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -1838,13 +1832,13 @@
         <v>5164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1906,13 @@
         <v>781950</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>285</v>
@@ -1930,10 +1924,10 @@
         <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>1030</v>
@@ -1942,13 +1936,13 @@
         <v>1075030</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,13 +1957,13 @@
         <v>697985</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -1981,10 +1975,10 @@
         <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>1104</v>
@@ -1993,13 +1987,13 @@
         <v>1155758</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,7 +2049,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C62695-C2BB-43C3-A32D-41FC7472E5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6AF0F6-EE52-4F57-906F-89045EEDB910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{857FF723-5F7C-4D87-A334-D2526A7CCF38}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B717C724-28F7-4AB4-B55C-D5467F98E4FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,376 +68,376 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>51,89%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>35,34%</t>
   </si>
   <si>
-    <t>26,47%</t>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>48,51%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>44,57%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>61,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>55,42%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9967C26-5BE9-4657-A7D8-669A7422E702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FBFEC-B98E-401E-A483-277DED35256B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1632,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1647,13 +1647,13 @@
         <v>57664</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1662,7 +1662,7 @@
         <v>26690</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>101</v>
@@ -1680,7 +1680,7 @@
         <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>104</v>

--- a/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70A05_2007-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD6AF0F6-EE52-4F57-906F-89045EEDB910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18948DB3-8669-464D-9DF7-FD03871174DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B717C724-28F7-4AB4-B55C-D5467F98E4FF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{46BA2F58-9A63-456B-9187-7A6B590EB798}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="138">
   <si>
     <t>Población según si tiene un comité de seguridad y salud o bien delegados de prevención en su empresa en 2007 (Tasa respuesta: 32,78%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>50,99%</t>
@@ -188,7 +188,7 @@
     <t>56,46%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>53,66%</t>
@@ -245,7 +245,7 @@
     <t>54,89%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>54,97%</t>
@@ -302,7 +302,7 @@
     <t>55,34%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>53,13%</t>
@@ -353,16 +353,16 @@
     <t>57,63%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>16,3%</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>67,35%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>48,63%</t>
@@ -371,25 +371,34 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
   </si>
   <si>
     <t>51,37%</t>
   </si>
   <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
   </si>
   <si>
     <t>52,84%</t>
@@ -852,8 +861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F1FBFEC-B98E-401E-A483-277DED35256B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C8003D7-8986-4847-A6DE-414ED1FEE0D2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1745,10 +1754,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>821</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -1769,22 +1778,22 @@
         <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>110</v>
       </c>
       <c r="M19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1718</v>
+        <v>897</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>112</v>
@@ -1796,19 +1805,19 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>4217</v>
+        <v>2568</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1817,25 +1826,25 @@
         <v>947</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>5164</v>
+        <v>3514</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>110</v>
@@ -1847,10 +1856,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1877,10 +1886,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N21" s="7">
-        <v>6882</v>
+        <v>4411</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1894,55 +1903,53 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>745</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>781950</v>
+        <v>821</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H22" s="7">
-        <v>285</v>
-      </c>
-      <c r="I22" s="7">
-        <v>293080</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>1030</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
-        <v>1075030</v>
+        <v>821</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1951,49 +1958,47 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>671</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>697985</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="H23" s="7">
-        <v>433</v>
-      </c>
-      <c r="I23" s="7">
-        <v>457773</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="7" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M23" s="7">
-        <v>1104</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1155758</v>
+        <v>1650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2002,63 +2007,217 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="7">
+        <v>3</v>
+      </c>
+      <c r="N24" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>745</v>
+      </c>
+      <c r="D25" s="7">
+        <v>781950</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="7">
+        <v>285</v>
+      </c>
+      <c r="I25" s="7">
+        <v>293080</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1030</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1075030</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>671</v>
+      </c>
+      <c r="D26" s="7">
+        <v>697985</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="7">
+        <v>433</v>
+      </c>
+      <c r="I26" s="7">
+        <v>457773</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1104</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1155758</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1416</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>1479935</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>718</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>750853</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2134</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2230788</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>134</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
